--- a/Baltimore vs Mountain Home - Average.xlsx
+++ b/Baltimore vs Mountain Home - Average.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ostor\Documents\OneDrive\Desktop\Homework\Business Analytics\Mini Project 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{431E5A1C-1D3E-42E7-A165-3F0E5AE1C96C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32BC4373-041A-43C6-A1F5-07B7A60CA3EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-9996" yWindow="1500" windowWidth="17280" windowHeight="9072" activeTab="1" xr2:uid="{C2DEB730-53CA-41D7-B116-1FE1096B3332}"/>
+    <workbookView xWindow="-9996" yWindow="1500" windowWidth="17280" windowHeight="9072" xr2:uid="{C2DEB730-53CA-41D7-B116-1FE1096B3332}"/>
   </bookViews>
   <sheets>
     <sheet name="Graphs, Comparison" sheetId="5" r:id="rId1"/>
@@ -19,7 +19,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="27" r:id="rId4"/>
+    <pivotCache cacheId="43" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -113,7 +113,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -782,6 +782,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Employment Rate - City-wide</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Average</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2336,7 +2366,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{56C7FBDD-F716-4078-858B-19CD19F1D633}" name="PivotTable8" cacheId="27" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{56C7FBDD-F716-4078-858B-19CD19F1D633}" name="PivotTable8" cacheId="43" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:D6" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField axis="axisRow" showAll="0">
@@ -2704,11 +2734,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96A1DAA2-BCCB-4732-8E5B-D6DC10F6FC6E}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.5546875" bestFit="1" customWidth="1"/>
@@ -2716,7 +2746,7 @@
     <col min="4" max="5" width="8.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -2727,7 +2757,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
@@ -2738,7 +2768,7 @@
         <v>26823</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>22</v>
       </c>
@@ -2749,7 +2779,7 @@
         <v>24672.057268722467</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -2757,7 +2787,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
         <v>21</v>
       </c>
@@ -2765,7 +2795,7 @@
         <v>0.77280000000000004</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
         <v>22</v>
       </c>
@@ -2783,11 +2813,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBACEAD1-16D6-4528-9D1F-D57F5FAB676A}">
   <dimension ref="A3:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="A3:D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.77734375" bestFit="1" customWidth="1"/>
@@ -2795,7 +2825,7 @@
     <col min="4" max="4" width="38.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -2809,7 +2839,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -2823,7 +2853,7 @@
         <v>24672.057268722467</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -2837,7 +2867,7 @@
         <v>26823</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -2864,12 +2894,12 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -2913,7 +2943,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2957,7 +2987,7 @@
         <v>736.71428571428567</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
